--- a/wwwroot/data/TablasIO_Excel.xlsx
+++ b/wwwroot/data/TablasIO_Excel.xlsx
@@ -29,7 +29,7 @@
     <definedName name="YT">Hoja1!$D$33:$D$35</definedName>
     <definedName name="YTR">Hoja1!$D$39:$D$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Mueble_Tipo</t>
+  </si>
   <si>
     <t>Mueble</t>
   </si>
@@ -65,15 +68,24 @@
     <t>CostoInsta</t>
   </si>
   <si>
+    <t>Mueble_Mat</t>
+  </si>
+  <si>
     <t>Material</t>
   </si>
   <si>
     <t>Uso_Mat</t>
   </si>
   <si>
+    <t xml:space="preserve">Material </t>
+  </si>
+  <si>
     <t>Cant_Mat</t>
   </si>
   <si>
+    <t xml:space="preserve">Almacen </t>
+  </si>
+  <si>
     <t>Almacen</t>
   </si>
   <si>
@@ -83,10 +95,10 @@
     <t>YA</t>
   </si>
   <si>
-    <t>Mueble_Tipo</t>
-  </si>
-  <si>
-    <t>Mueble_Mat</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller </t>
   </si>
   <si>
     <t>Taller</t>
@@ -110,26 +122,15 @@
     <t>Zona</t>
   </si>
   <si>
-    <t xml:space="preserve">Taller </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almacen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material </t>
-  </si>
-  <si>
     <t>CostoDeliv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,27 +219,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,9 +570,9 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -580,30 +581,30 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -624,7 +625,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -645,7 +646,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -666,7 +667,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -687,7 +688,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -696,25 +697,25 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -724,7 +725,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="5">
         <v>1</v>
       </c>
@@ -739,7 +740,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -752,7 +753,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -761,9 +762,9 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -772,22 +773,22 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="5">
         <v>1</v>
       </c>
@@ -802,7 +803,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="5">
         <v>1</v>
       </c>
@@ -817,7 +818,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -832,7 +833,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -847,7 +848,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -856,9 +857,9 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
@@ -867,12 +868,12 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -880,7 +881,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="B22" s="5">
         <v>1</v>
       </c>
@@ -893,7 +894,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="B23" s="5">
         <v>2</v>
       </c>
@@ -906,7 +907,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -915,9 +916,9 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -926,22 +927,22 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="B27" s="5">
         <v>1</v>
       </c>
@@ -949,14 +950,14 @@
         <v>1200</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="B28" s="5">
         <v>2</v>
       </c>
@@ -964,14 +965,14 @@
         <v>1500</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="B29" s="5">
         <v>3</v>
       </c>
@@ -979,14 +980,14 @@
         <v>2200</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -995,33 +996,35 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="B33" s="5">
         <v>1</v>
       </c>
@@ -1034,7 +1037,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="B34" s="5">
         <v>2</v>
       </c>
@@ -1047,7 +1050,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="B35" s="5">
         <v>3</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1069,9 +1072,9 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -1080,22 +1083,22 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="B38" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="B39" s="5">
         <v>1</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="B40" s="5">
         <v>2</v>
       </c>
@@ -1121,7 +1124,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
@@ -1130,9 +1133,9 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -1141,12 +1144,12 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1154,7 +1157,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="B44" s="5">
         <v>1</v>
       </c>
@@ -1167,7 +1170,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="B45" s="5">
         <v>2</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1189,7 +1192,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1198,7 +1201,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1207,7 +1210,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1216,7 +1219,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1225,7 +1228,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1234,7 +1237,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1244,7 +1247,7 @@
       <c r="H52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:D13"/>
@@ -1255,5 +1258,6 @@
     <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>